--- a/Diagrammi/PLAN_Int.xlsx
+++ b/Diagrammi/PLAN_Int.xlsx
@@ -85,25 +85,25 @@
     <t xml:space="preserve">3.1 arruolamento pazienti, digital pathology</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1 implementazione dello studio di diagnostica avanzata: viene applicata l'intera catena di processo, in particolare con analisi di routine in patologia digitale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 training algoritmo intelligenza artificiale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 validation algoritmo intelligenza articiale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 integrazione clinico-patologica per stress test algoritmo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 validation algoritmo intelligenza articiale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 pubblicazione del risultati raggiunti nella diagnostica avanzata delle nefropatie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 conclusione e outlook sulle implementazioni future</t>
+    <t xml:space="preserve">3.2 implementazione dello studio di diagnostica avanzata: viene applicata l'intera catena di processo, in particolare con analisi di routine in patologia digitale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3 training algoritmo intelligenza artificiale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4 validation algoritmo intelligenza articiale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5 integrazione clinico-patologica per stress test algoritmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6 validation algoritmo intelligenza articiale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1 pubblicazione del risultati raggiunti nella diagnostica avanzata delle nefropatie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2 conclusione e outlook sulle implementazioni future</t>
   </si>
 </sst>
 </file>
@@ -355,7 +355,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -397,7 +397,8 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C2+D2</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,10 +412,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C3+D3</f>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,7 +433,8 @@
         <v>36</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C4+D4</f>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,7 +451,8 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C5+D5</f>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -459,13 +463,14 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C6+D6</f>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,13 +481,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C7+D7</f>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,7 +505,8 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C8+D8</f>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,7 +523,8 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C9+D9</f>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,7 +541,8 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C10+D10</f>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,7 +559,8 @@
         <v>6</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C11+D11</f>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,7 +577,8 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C12+D12</f>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,7 +595,8 @@
         <v>6</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C13+D13</f>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,7 +613,8 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C14+D14</f>
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,7 +631,8 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C15+D15</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,7 +649,8 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C16+D16</f>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,7 +667,8 @@
         <v>30</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C17+D17</f>
+        <v>37</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,7 +685,8 @@
         <v>30</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C18+D18</f>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,13 +697,14 @@
         <v>22</v>
       </c>
       <c r="C19" s="7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7" t="n">
         <v>15</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C19+D19</f>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,7 +721,8 @@
         <v>14</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C20+D20</f>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,7 +739,8 @@
         <v>7</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C21+D21</f>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -731,13 +751,14 @@
         <v>25</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C22+D22</f>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,13 +769,14 @@
         <v>26</v>
       </c>
       <c r="C23" s="7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C23+D23</f>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,13 +787,14 @@
         <v>27</v>
       </c>
       <c r="C24" s="7" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>1</v>
+        <f aca="false">C24+D24</f>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Diagrammi/PLAN_Int.xlsx
+++ b/Diagrammi/PLAN_Int.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Task</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">3.1 arruolamento pazienti, digital pathology</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2 implementazione dello studio di diagnostica avanzata: viene applicata l'intera catena di processo, in particolare con analisi di routine in patologia digitale</t>
+    <t xml:space="preserve">3.2 implementazione studio diagnostica avanzata: applicata l'intera catena di processo, con analisi di routine in patologia digitale</t>
   </si>
   <si>
     <t xml:space="preserve">3.3 training algoritmo intelligenza artificiale</t>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.5 integrazione clinico-patologica per stress test algoritmo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6 validation algoritmo intelligenza articiale</t>
   </si>
   <si>
     <t xml:space="preserve">4.1 pubblicazione del risultati raggiunti nella diagnostica avanzata delle nefropatie </t>
@@ -352,10 +349,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E24"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -725,7 +722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>3.5</v>
       </c>
@@ -733,19 +730,19 @@
         <v>24</v>
       </c>
       <c r="C21" s="7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>7</v>
       </c>
       <c r="E21" s="1" t="n">
         <f aca="false">C21+D21</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>25</v>
@@ -761,39 +758,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="7" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1" t="n">
         <f aca="false">C23+D23</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>34</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <f aca="false">C24+D24</f>
         <v>37</v>
       </c>
     </row>
